--- a/Software/Negative FCF/Dutch Bros.xlsx
+++ b/Software/Negative FCF/Dutch Bros.xlsx
@@ -5,25 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Software/Negative FCF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FD25B1-C039-0342-8981-BBF9414C219B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D6AFF6-30DA-1B4E-A35E-C9E29F8DA224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
     <sheet name="Model" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Model!$A$107</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Model!$A$20</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Model!$A$4</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Model!$B$107:$E$107</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Model!$B$20:$E$20</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Model!$B$4:$E$4</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,8 +33,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="173">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -401,9 +430,6 @@
     <t>Debt to Equity</t>
   </si>
   <si>
-    <t>Share Dilution (5yr)</t>
-  </si>
-  <si>
     <t>P/S</t>
   </si>
   <si>
@@ -453,18 +479,130 @@
   </si>
   <si>
     <t>13,000 employees</t>
+  </si>
+  <si>
+    <t>Weighted Average Cost of Capital</t>
+  </si>
+  <si>
+    <t>Cost of Debt Calculation</t>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+  </si>
+  <si>
+    <t>Short Term Debt</t>
+  </si>
+  <si>
+    <t>Long Term Debt</t>
+  </si>
+  <si>
+    <t>Cost of Debt</t>
+  </si>
+  <si>
+    <t>Income Tax Expense</t>
+  </si>
+  <si>
+    <t>Effective Tax Rate</t>
+  </si>
+  <si>
+    <t>Cost of Debt*(1-t)</t>
+  </si>
+  <si>
+    <t>Cost of Equity Calculation</t>
+  </si>
+  <si>
+    <t>Risk Free Rate</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Market Return</t>
+  </si>
+  <si>
+    <t>Cost of Equity</t>
+  </si>
+  <si>
+    <t>Weight of Debt + Equity Calculation</t>
+  </si>
+  <si>
+    <t>Total Debt</t>
+  </si>
+  <si>
+    <t>Weight of Debt</t>
+  </si>
+  <si>
+    <t>Market Cap</t>
+  </si>
+  <si>
+    <t>Weight of Equity</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>WACC Calculation</t>
+  </si>
+  <si>
+    <t>WACC</t>
+  </si>
+  <si>
+    <t>Proj. Free Cash Flow</t>
+  </si>
+  <si>
+    <t>FCF Growth Rate</t>
+  </si>
+  <si>
+    <t>Terminal Value</t>
+  </si>
+  <si>
+    <t>Perpetual Growth Rate</t>
+  </si>
+  <si>
+    <t>Discount Rate (WACC)</t>
+  </si>
+  <si>
+    <t>Discounted Cash Flow Valuation</t>
+  </si>
+  <si>
+    <t>Enterprise Value</t>
+  </si>
+  <si>
+    <t>Cash + Securities</t>
+  </si>
+  <si>
+    <t>Equity Value</t>
+  </si>
+  <si>
+    <t>Intrinsic Value</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t>Upside/Downside</t>
+  </si>
+  <si>
+    <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>Share Dilution (3yr)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -559,8 +697,35 @@
       <name val="Calibri"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -578,8 +743,32 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -690,11 +879,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -760,11 +1003,90 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="10" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="17" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1791,16 +2113,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1826,6 +2148,441 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=c38ljc&amp;q=XNYS%3aBROS&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>Dutch Bros Inc (XNYS:BROS)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>c38ljc</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>57.1</v>
+    <v>20.05</v>
+    <v>2.3719999999999999</v>
+    <v>-0.41</v>
+    <v>-1.2857E-2</v>
+    <v>0.12</v>
+    <v>3.8119999999999999E-3</v>
+    <v>USD</v>
+    <v>Dutch Bros Inc. is an operator and franchisor of drive-thru shops that focuses on serving hand-crafted beverages. The Company operates through two segments: Company-operated shops and Franchising and other. The Company-operated shops segment includes coffee shop sales to customers. The Franchising and other segment includes bean and product sales to franchise partners and includes the initial franchise fees, royalties, and marketing fees. The Company sells a range of customizable hot, iced, and blended beverages. Its coffee-based beverages include its espresso-based custom drinks, cold brew, and its proprietary freeze blended beverages. Its menu mix is based upon its proprietary Blue Rebel energy drink, which is customizable with flavors and modifiers and can be served blended or over ice. It also offers a variety of teas, lemonades, sodas, and smoothies. The Company has approximately 671 shops, of which 396 were Company-operated and 275 were franchised, across 14 states.</v>
+    <v>22000</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>110 Sw 4Th Street, GRANTS PASS, OR, 97526 US</v>
+    <v>32.21</v>
+    <v>Hotels &amp; Entertainment Services</v>
+    <v>Stock</v>
+    <v>45022.999620543749</v>
+    <v>0</v>
+    <v>31.16</v>
+    <v>5157384140</v>
+    <v>Dutch Bros Inc</v>
+    <v>Dutch Bros Inc</v>
+    <v>31.72</v>
+    <v>31.89</v>
+    <v>31.48</v>
+    <v>31.6</v>
+    <v>163830500</v>
+    <v>BROS</v>
+    <v>Dutch Bros Inc (XNYS:BROS)</v>
+    <v>847799</v>
+    <v>939470</v>
+    <v>2021</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="44">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2127,7 +2884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27F6E19-A403-8F4E-A566-DCF18EC8558F}">
   <dimension ref="B1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
@@ -2140,28 +2897,28 @@
   <sheetData>
     <row r="1" spans="2:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="F1" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="G1" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" s="32" t="s">
+      <c r="J1" s="32" t="s">
         <v>132</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="2:15" ht="19" x14ac:dyDescent="0.25">
@@ -2182,12 +2939,12 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="O2" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="19" x14ac:dyDescent="0.25">
       <c r="B3" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30">
@@ -2204,7 +2961,7 @@
         <v>671</v>
       </c>
       <c r="O3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="19" x14ac:dyDescent="0.25">
@@ -2238,7 +2995,7 @@
     </row>
     <row r="5" spans="2:15" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="15">
@@ -2301,7 +3058,7 @@
     </row>
     <row r="7" spans="2:15" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="15">
@@ -2341,13 +3098,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL108"/>
+  <dimension ref="A1:AL119"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
+      <selection pane="bottomRight" activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2358,8 +3115,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>124</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>2019</v>
@@ -2423,7 +3180,7 @@
     </row>
     <row r="3" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="30">
         <v>370</v>
@@ -2846,16 +3603,16 @@
         <v>183528000</v>
       </c>
       <c r="K16" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="M16" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="M16" s="20" t="s">
+      <c r="N16" s="20" t="s">
         <v>121</v>
-      </c>
-      <c r="N16" s="20" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -2880,15 +3637,15 @@
       </c>
       <c r="L17" s="27">
         <f>M102/E4</f>
-        <v>6.5628163006825329</v>
+        <v>6.9787556088399105</v>
       </c>
       <c r="M17" s="27">
         <f>M102/E29</f>
-        <v>-1020.4081632653061</v>
+        <v>-1085.0797685672208</v>
       </c>
       <c r="N17" s="28">
         <f>M102/E107</f>
-        <v>-37.891513082337866</v>
+        <v>-40.29300796112409</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -2925,7 +3682,7 @@
         <v>44728000</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3972,7 +4729,7 @@
         <v>41657000</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>104</v>
       </c>
@@ -3993,7 +4750,7 @@
         <v>5.6368502811862321E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>69</v>
       </c>
@@ -4010,7 +4767,7 @@
         <v>-8327000</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>70</v>
       </c>
@@ -4027,7 +4784,7 @@
         <v>-1322000</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>34</v>
       </c>
@@ -4043,8 +4800,12 @@
       <c r="E84" s="1">
         <v>-15817000</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="L84" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="M84" s="36"/>
+    </row>
+    <row r="85" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>47</v>
       </c>
@@ -4060,8 +4821,12 @@
       <c r="E85" s="1">
         <v>1606000</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="L85" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="M85" s="38"/>
+    </row>
+    <row r="86" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>71</v>
       </c>
@@ -4077,8 +4842,15 @@
       <c r="E86" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="L86" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="M86" s="40">
+        <f>E18</f>
+        <v>18018000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>72</v>
       </c>
@@ -4094,8 +4866,15 @@
       <c r="E87" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="L87" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="M87" s="40">
+        <f>E57</f>
+        <v>130762000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>73</v>
       </c>
@@ -4111,8 +4890,15 @@
       <c r="E88" s="10">
         <v>59883000</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="L88" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="M88" s="40">
+        <f>E62</f>
+        <v>494655000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>74</v>
       </c>
@@ -4128,8 +4914,15 @@
       <c r="E89" s="1">
         <v>-187880000</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L89" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="M89" s="42">
+        <f>M86/(M87+M88)</f>
+        <v>2.8809578249392006E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>105</v>
       </c>
@@ -4149,8 +4942,15 @@
         <f t="shared" si="5"/>
         <v>0.25423132506644008</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="L90" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="M90" s="40">
+        <f>E28</f>
+        <v>2599000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>75</v>
       </c>
@@ -4166,8 +4966,15 @@
       <c r="E91" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="L91" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="M91" s="40">
+        <f>E26</f>
+        <v>-16654000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>76</v>
       </c>
@@ -4183,8 +4990,15 @@
       <c r="E92" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="L92" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="M92" s="42">
+        <f>M90/M91</f>
+        <v>-0.15605860453944997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>77</v>
       </c>
@@ -4200,8 +5014,15 @@
       <c r="E93" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="L93" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="M93" s="44">
+        <f>M89*(1-M92)</f>
+        <v>3.330556082836221E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>78</v>
       </c>
@@ -4217,8 +5038,12 @@
       <c r="E94" s="1">
         <v>-4692000</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="L94" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="M94" s="38"/>
+    </row>
+    <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>79</v>
       </c>
@@ -4234,8 +5059,14 @@
       <c r="E95" s="10">
         <v>-192572000</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="L95" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="M95" s="45">
+        <v>4.095E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>80</v>
       </c>
@@ -4251,8 +5082,15 @@
       <c r="E96" s="1">
         <v>-10569000</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="L96" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="M96" s="46" cm="1">
+        <f t="array" ref="M96">_FV(A1,"Beta")</f>
+        <v>2.3719999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +5106,14 @@
       <c r="E97" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="L97" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="M97" s="45">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>82</v>
       </c>
@@ -4284,6 +5128,13 @@
       </c>
       <c r="E98" s="1" t="s">
         <v>92</v>
+      </c>
+      <c r="L98" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="M98" s="44">
+        <f>(M95)+((M96)*(M97-M95))</f>
+        <v>0.14306460000000001</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -4302,8 +5153,12 @@
       <c r="E99" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="L99" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="M99" s="38"/>
+    </row>
+    <row r="100" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>84</v>
       </c>
@@ -4319,8 +5174,15 @@
       <c r="E100" s="1">
         <v>144930000</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="L100" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="M100" s="40">
+        <f>M87+M88</f>
+        <v>625417000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>85</v>
       </c>
@@ -4336,8 +5198,15 @@
       <c r="E101" s="10">
         <v>134361000</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="L101" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="M101" s="42">
+        <f>M100/M104</f>
+        <v>0.10815122029252419</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>86</v>
       </c>
@@ -4353,11 +5222,15 @@
       <c r="E102" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M102" s="1">
-        <v>4850000000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="L102" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="M102" s="47" cm="1">
+        <f t="array" ref="M102">_FV(A1,"Market cap",TRUE)</f>
+        <v>5157384140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>87</v>
       </c>
@@ -4373,8 +5246,15 @@
       <c r="E103" s="10">
         <v>1672000</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="L103" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="M103" s="42">
+        <f>M102/M104</f>
+        <v>0.89184877970747578</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>88</v>
       </c>
@@ -4389,6 +5269,13 @@
       </c>
       <c r="E104" s="1">
         <v>18506000</v>
+      </c>
+      <c r="L104" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="M104" s="48">
+        <f>M100+M102</f>
+        <v>5782801140</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -4407,8 +5294,12 @@
       <c r="E105" s="11">
         <v>20178000</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="L105" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="M105" s="38"/>
+    </row>
+    <row r="106" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>106</v>
       </c>
@@ -4425,6 +5316,19 @@
         <f>(E107/D107)-1</f>
         <v>-2.5924976671850697</v>
       </c>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="15"/>
+      <c r="L106" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="M106" s="50">
+        <f>(M101*M93)+(M103*M98)</f>
+        <v>0.13119402597545241</v>
+      </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
@@ -4441,6 +5345,36 @@
       </c>
       <c r="E107" s="1">
         <v>-127997000</v>
+      </c>
+      <c r="F107" s="51">
+        <f>E107*(1+$M$107)</f>
+        <v>-160266422.74820825</v>
+      </c>
+      <c r="G107" s="51">
+        <f t="shared" ref="G107:J107" si="6">F107*(1+$M$107)</f>
+        <v>-200671314.64415106</v>
+      </c>
+      <c r="H107" s="51">
+        <f t="shared" si="6"/>
+        <v>-251262715.11205909</v>
+      </c>
+      <c r="I107" s="51">
+        <f t="shared" si="6"/>
+        <v>-314608752.71304697</v>
+      </c>
+      <c r="J107" s="51">
+        <f t="shared" si="6"/>
+        <v>-393925008.88767469</v>
+      </c>
+      <c r="K107" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="L107" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="M107" s="54">
+        <f>(SUM(F5:J5)/5)</f>
+        <v>0.25211077406664406</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -4449,8 +5383,152 @@
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
+      <c r="F108" s="52"/>
+      <c r="G108" s="52"/>
+      <c r="H108" s="52"/>
+      <c r="I108" s="52"/>
+      <c r="J108" s="55">
+        <f>J107*(1+M108)/(M109-M108)</f>
+        <v>-3802220797.2716079</v>
+      </c>
+      <c r="K108" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="L108" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="M108" s="58">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F109" s="55">
+        <f t="shared" ref="F109:H109" si="7">F108+F107</f>
+        <v>-160266422.74820825</v>
+      </c>
+      <c r="G109" s="55">
+        <f t="shared" si="7"/>
+        <v>-200671314.64415106</v>
+      </c>
+      <c r="H109" s="55">
+        <f t="shared" si="7"/>
+        <v>-251262715.11205909</v>
+      </c>
+      <c r="I109" s="55">
+        <f>I108+I107</f>
+        <v>-314608752.71304697</v>
+      </c>
+      <c r="J109" s="55">
+        <f>J108+J107</f>
+        <v>-4196145806.1592827</v>
+      </c>
+      <c r="K109" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="L109" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="M109" s="60">
+        <f>M106</f>
+        <v>0.13119402597545241</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F110" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="G110" s="62"/>
+    </row>
+    <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F111" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="G111" s="47">
+        <f>NPV(M109,F109,G109,H109,I109,J109)</f>
+        <v>-2929736483.0403881</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F112" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="G112" s="47">
+        <f>E41</f>
+        <v>20178000</v>
+      </c>
+    </row>
+    <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F113" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="G113" s="47">
+        <f>M100</f>
+        <v>625417000</v>
+      </c>
+    </row>
+    <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F114" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="G114" s="47">
+        <f>G111+G112-G113</f>
+        <v>-3534975483.0403881</v>
+      </c>
+    </row>
+    <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F115" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="G115" s="64">
+        <f>E35*(1+(5*K17))</f>
+        <v>61343813.832482196</v>
+      </c>
+    </row>
+    <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F116" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="G116" s="66">
+        <f>G114/G115</f>
+        <v>-57.625622898075846</v>
+      </c>
+    </row>
+    <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F117" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="G117" s="67" cm="1">
+        <f t="array" ref="G117">_FV(A1,"Price")</f>
+        <v>31.48</v>
+      </c>
+    </row>
+    <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F118" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="G118" s="69">
+        <f>G116/G117-1</f>
+        <v>-2.8305471060379874</v>
+      </c>
+    </row>
+    <row r="119" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F119" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="G119" s="70" t="str">
+        <f>IF(G116&gt;G117,"BUY","SELL")</f>
+        <v>SELL</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="F110:G110"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/BROS" display="ROIC.AI | BROS" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B37" r:id="rId2" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
